--- a/proyectos/ejemplo1/7/datos_generales.xlsx
+++ b/proyectos/ejemplo1/7/datos_generales.xlsx
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>7.149051953565419e-31</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -941,7 +941,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.152000000000019</v>
+        <v>-0.7679999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -973,7 +973,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-114.9120000000015</v>
+        <v>-3.127258066302722e-15</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -981,7 +981,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-1.355854680848614e-31</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -989,7 +989,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.151999999999997</v>
+        <v>-0.7679999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1021,7 +1021,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>114.912</v>
+        <v>3.127258066302681e-15</v>
       </c>
     </row>
   </sheetData>
